--- a/AutomatisationGlobaleInc/Annexes exercice 15/Commandes Avril.xlsx
+++ b/AutomatisationGlobaleInc/Annexes exercice 15/Commandes Avril.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7aea5f05bb0a656/Mes cours/Estiam/E4/RPA - Fundamentals/Exercices/Exo15 - Module 1-20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexi\Documents\UiPath\AutomatisationGlobaleInc\Annexes exercice 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D9D64A577C15A4A54183E609B42A45BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E29A4A-72D4-4651-8308-09D256834A93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A8908-FFB9-42E8-B9EE-696035F1DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Nom</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Thomas Renard</t>
   </si>
   <si>
-    <t>jean.martin@mail.com</t>
-  </si>
-  <si>
     <t>Clavier AZERTY sans fil</t>
   </si>
   <si>
@@ -141,15 +138,9 @@
     <t>thomas.renard@gmail.com</t>
   </si>
   <si>
-    <t>PC portable 14"</t>
-  </si>
-  <si>
     <t>749.00</t>
   </si>
   <si>
-    <t>Moniteur 32" QHD</t>
-  </si>
-  <si>
     <t>349.00</t>
   </si>
   <si>
@@ -163,6 +154,12 @@
   </si>
   <si>
     <t>54.90</t>
+  </si>
+  <si>
+    <t>PC portable 14</t>
+  </si>
+  <si>
+    <t>Moniteur 32 QHD</t>
   </si>
 </sst>
 </file>
@@ -516,20 +513,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,47 +546,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5">
         <v>45748</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>45750</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -600,16 +595,16 @@
         <v>45752</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -620,16 +615,16 @@
         <v>45755</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -640,16 +635,16 @@
         <v>45757</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -660,36 +655,36 @@
         <v>45760</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>45763</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -700,27 +695,27 @@
         <v>45767</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>45771</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -729,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -740,27 +735,26 @@
         <v>45776</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:jean.martin@mail.com" xr:uid="{9C6AA0B4-27CB-41FD-AAAD-6FC35002E5F5}"/>
-    <hyperlink ref="B3" r:id="rId2" display="mailto:s.lambert@icloud.com" xr:uid="{E4CB043E-38C3-424F-B26B-02EA3C29CE25}"/>
-    <hyperlink ref="B4" r:id="rId3" display="mailto:l.moreau@yahoo.fr" xr:uid="{2BCFBA3D-24E7-4F93-8D09-38709895BF53}"/>
-    <hyperlink ref="B5" r:id="rId4" display="mailto:emma.petit@outlook.fr" xr:uid="{5CDD3023-74BC-43D0-A63B-3EB030794C4C}"/>
-    <hyperlink ref="B6" r:id="rId5" display="mailto:a.giraud@free.fr" xr:uid="{ADEC120F-ACF1-4CE0-BAF2-23FE8529906F}"/>
-    <hyperlink ref="B7" r:id="rId6" display="mailto:julie.f@laposte.net" xr:uid="{24A8B675-1A0E-488A-B048-A31CEEB8E44D}"/>
-    <hyperlink ref="B8" r:id="rId7" display="mailto:thomas.renard@gmail.com" xr:uid="{1F4F18A0-81B9-4E00-9E49-3306CEEAEB2C}"/>
-    <hyperlink ref="B9" r:id="rId8" display="mailto:laura.bernard@live.fr" xr:uid="{FBDB9DB5-D80E-486C-B1C9-2D3A6A125793}"/>
-    <hyperlink ref="B10" r:id="rId9" display="mailto:n.lefevre@orange.fr" xr:uid="{F74B6901-74AA-40F9-A1AB-A3F3580AAA7E}"/>
-    <hyperlink ref="B11" r:id="rId10" display="mailto:marie.dupont@mail.com" xr:uid="{FE4055E1-8C67-4965-8F66-D3EDB6903C25}"/>
+    <hyperlink ref="B3" r:id="rId1" display="mailto:s.lambert@icloud.com" xr:uid="{E4CB043E-38C3-424F-B26B-02EA3C29CE25}"/>
+    <hyperlink ref="B4" r:id="rId2" display="mailto:l.moreau@yahoo.fr" xr:uid="{2BCFBA3D-24E7-4F93-8D09-38709895BF53}"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:emma.petit@outlook.fr" xr:uid="{5CDD3023-74BC-43D0-A63B-3EB030794C4C}"/>
+    <hyperlink ref="B6" r:id="rId4" display="mailto:a.giraud@free.fr" xr:uid="{ADEC120F-ACF1-4CE0-BAF2-23FE8529906F}"/>
+    <hyperlink ref="B7" r:id="rId5" display="mailto:julie.f@laposte.net" xr:uid="{24A8B675-1A0E-488A-B048-A31CEEB8E44D}"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:thomas.renard@gmail.com" xr:uid="{1F4F18A0-81B9-4E00-9E49-3306CEEAEB2C}"/>
+    <hyperlink ref="B9" r:id="rId7" display="mailto:laura.bernard@live.fr" xr:uid="{FBDB9DB5-D80E-486C-B1C9-2D3A6A125793}"/>
+    <hyperlink ref="B10" r:id="rId8" display="mailto:n.lefevre@orange.fr" xr:uid="{F74B6901-74AA-40F9-A1AB-A3F3580AAA7E}"/>
+    <hyperlink ref="B11" r:id="rId9" display="mailto:marie.dupont@mail.com" xr:uid="{FE4055E1-8C67-4965-8F66-D3EDB6903C25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -982,13 +976,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA647518-BA37-41EF-96CD-4BC5025B9CA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA647518-BA37-41EF-96CD-4BC5025B9CA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75c570ee-dbf5-4040-b722-f20ea5a24629"/>
+    <ds:schemaRef ds:uri="07b9a451-d37d-4400-893f-ab9971785dac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DC6B5F-27CE-405D-A968-BF3890E72C80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DC6B5F-27CE-405D-A968-BF3890E72C80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8103E2CF-28ED-495A-B6A3-44F61422E44C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8103E2CF-28ED-495A-B6A3-44F61422E44C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07b9a451-d37d-4400-893f-ab9971785dac"/>
+    <ds:schemaRef ds:uri="75c570ee-dbf5-4040-b722-f20ea5a24629"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>